--- a/Networking in Google Cloud.xlsx
+++ b/Networking in Google Cloud.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tbd\GCPPrepGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68457F48-1DE2-4EFD-888D-E552B8563BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6908290-6DD3-4EEB-96A9-F01E999F5EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fundamentals" sheetId="1" r:id="rId1"/>
+    <sheet name="Queries" sheetId="4" r:id="rId1"/>
+    <sheet name="Fundamentals" sheetId="1" r:id="rId2"/>
+    <sheet name="Routing and Addressing" sheetId="3" r:id="rId3"/>
+    <sheet name="Loadbalancing" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="296">
   <si>
     <t xml:space="preserve">A virtual Private Cloud VPC network is a virtual version of a physical network </t>
   </si>
@@ -221,12 +223,931 @@
 Historically, such projects would consider external IP addresses or VPNs to facilitate private communication between VPC networks.
 However, VPC Network Peering does not incur the network latency, security, and cost drawbacks that are present when you use external IP addresses or VPNs.</t>
   </si>
+  <si>
+    <t>shared VPC</t>
+  </si>
+  <si>
+    <t>allows you to share a network across several projects in your Google Cloud organization.</t>
+  </si>
+  <si>
+    <t>Symbol has four networks that belong to the Web application servers project, namely the recommendation, personalization, analytics, and web.
+The recommendation service, the personalization service, and the analytics service are each hosted on a different VPC.
+In this model, Kim is facing challenges such as time consuming management of network, difficulty scaling, and limitation communicating between networks.
+In addition to this, it is a constant turn to set up access policy, new projects, billing, etc.
+Kim would like to centrally manage the VPC networks while still segregating workloads that use these networks.
+What should Kim do?</t>
+  </si>
+  <si>
+    <t>In a shared VPC, you designate a project as a host project and attach one or more other service projects to it.</t>
+  </si>
+  <si>
+    <t>billing for the VM instances is attributed to the project where the resources are created, which are the service projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When to chose what? </t>
+  </si>
+  <si>
+    <t>Shared VPC</t>
+  </si>
+  <si>
+    <t>If you want to configure private communication between VPC networks in different organizations</t>
+  </si>
+  <si>
+    <t>works for same organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Shared VPC only works across projects.</t>
+  </si>
+  <si>
+    <t>If you want to configure private communication between VPC networks in the same project, you must use VPC network peering.
+The VPC networks can be in the same project, but it's not required.</t>
+  </si>
+  <si>
+    <t>the biggest difference between the two configurations is the network administration models.</t>
+  </si>
+  <si>
+    <t>Shared VPC is a centralized approach to multi project networking because security and network policy occurs in a single designated VPC network.</t>
+  </si>
+  <si>
+    <t>Each VPC network can maintain its own global firewall and routing tables.</t>
+  </si>
+  <si>
+    <t>In contrast, VPC network peering is a decentralized approach.
+Each VPC network is controlled by administrator groups in that VPC networks organization.</t>
+  </si>
+  <si>
+    <t>VPC network peering gives you several advantages over using external IP addresses or VPNs to connect networks, including:
+Network latency: Public IP networking results in higher latency than private networking.
+Network security: Service owners do not need to have their services exposed to the public internet and deal with its associated risks.
+Network cost: Google Cloud charges egress bandwidth pricing for networks using external IPs to communicate, even if the traffic is within the same zone. If, however, the networks are peered, they can use internal IPs to communicate and save on those egress costs. Regular network pricing still applies to all traffic.</t>
+  </si>
+  <si>
+    <t>Migrating a VM</t>
+  </si>
+  <si>
+    <t>When a VM is connected to more than one network using multiple interfaces, the migration process updates one of the interfaces and leaves the rest in place.</t>
+  </si>
+  <si>
+    <t>Luca needs to migrate a VM from one VPC network to another.
+What can she do?</t>
+  </si>
+  <si>
+    <t>The migration is a cold migration.
+The VM must be stopped before it can be migrated.
+The VM must not be in an instance group or network endpoint group NEG.
+If the VM is in an unmanaged instance group or NEG, you must take it out of the group before migrating it.
+VMs in managed instance groups cannot be migrated.
+Instead, you must copy your instance template to the new network and use it to rebuild the managed instance group.
+A target pool is a group of Google compute engine instances that receive incoming traffic from a load balancer.
+You can move instances and target pools without removing them first.
+The target pool expands to cover both networks.</t>
+  </si>
+  <si>
+    <t>Monitorting</t>
+  </si>
+  <si>
+    <t>visibility into the network, Tal can use Google Cloud monitoring to create custom dashboards that contain charts of the metrics that he wants to monitor.</t>
+  </si>
+  <si>
+    <t>charts provide visibility into the utilization and network traffic of your VM instances</t>
+  </si>
+  <si>
+    <t>An alerting policy describes the circumstances under which you want to be alerted and how you want to be notified about an incident.</t>
+  </si>
+  <si>
+    <t>Alerting</t>
+  </si>
+  <si>
+    <t>The alerting policy can monitor time series data stored by Cloud monitoring, or log stored by Cloud logging.
+When that data meets the alerting policy condition, Cloud monitoring creates an incident and sends the notifications.</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>VPC Flow Logs</t>
+  </si>
+  <si>
+    <t>VPC Flow Logs capture traffic from both ends of a VM-to-VM conversation within the same VPC network.
+To use this feature, ensure both the communicating VMs reside in subnets with VPC Flow Logs enabled.</t>
+  </si>
+  <si>
+    <t>Packet Mirroring clones the traffic of specific instances in your Virtual Private Cloud (VPC) network and forwards it for examination.</t>
+  </si>
+  <si>
+    <t>Flow Analyzer lets you perform opinionated network traffic analysis with 5-tuple granularity (source IP, destination IP, source port, destination port, and protocol).
+Developed using Log Analytics and powered by BigQuery, Flow Analyzer enables in-depth analysis of inbound and outbound traffic of your VM instances.</t>
+  </si>
+  <si>
+    <t>Cloud NAT logging allows you to log NAT connections and errors.
+When Cloud NAT logging is enabled, one log entry can be generated for each of the following scenarios: When a network connection using NAT is created.
+When a packet is dropped because no port was available for NAT.</t>
+  </si>
+  <si>
+    <t>Although Tal can explore each log entry within Google Cloud Logging, we recommend exporting logs to BigQuery.
+BigQuery runs blazing-fast SQL queries on gigabytes to petabytes of data.</t>
+  </si>
+  <si>
+    <t>If Tal wants to visualize logs, we recommend connecting BigQuery tables to Looker Studio.
+Looker Studio transforms raw data into the metrics and dimensions that Tal can use to create easy-to-understand reports and dashboards.</t>
+  </si>
+  <si>
+    <t>Subnet &amp; IP addresses</t>
+  </si>
+  <si>
+    <t>The new subnet must not overlap with other subnets in the same VPC network in any region.</t>
+  </si>
+  <si>
+    <t>Each IP range for all subnets in a VPC network must be a unique valid CIDR block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Subnet ranges cannot match, be narrower, or be broader than a restricted range.</t>
+  </si>
+  <si>
+    <t>Subnet ranges cannot span a valid RFC range and a privately used public IP address range.</t>
+  </si>
+  <si>
+    <t>Subnet ranges cannot span multiple RFC ranges.</t>
+  </si>
+  <si>
+    <t>The new network range must be larger than the original, which means the prefix length value must be a smaller number.</t>
+  </si>
+  <si>
+    <t>Auto mode subnets start with a /20 IP range. They can be expanded to a /16 IP range, but no larger.</t>
+  </si>
+  <si>
+    <t>Alternatively, you can convert the auto mode subnetwork to a custom mode subnetwork to increase the IP range further.</t>
+  </si>
+  <si>
+    <t>Routes define the paths that network traffic takes from a virtual machine, or VM, instance to other destinations.</t>
+  </si>
+  <si>
+    <t>Routes match packets by destination IP address.
+Forward traffic to highest priority or specific route.
+However, no traffic will flow without also matching a firewall rule.</t>
+  </si>
+  <si>
+    <t>A route is created when a network or subnet is created, enabling traffic delivery from anywhere. 
+This is what allows VMs on the same network to communicate.</t>
+  </si>
+  <si>
+    <t>Network tags fine-tune which route is picked.</t>
+  </si>
+  <si>
+    <t>Network Tags</t>
+  </si>
+  <si>
+    <t>If a route has a network tag, it can be applied only to instances that have the same network tag.</t>
+  </si>
+  <si>
+    <t>Routes without network tags can apply to all instances in the network.</t>
+  </si>
+  <si>
+    <t>Allow HTTP Traffic checkbox during the instance creation, basically adds a network tag http_traffic to the instance in the subnet</t>
+  </si>
+  <si>
+    <t>Types of Routes</t>
+  </si>
+  <si>
+    <t>System-generated routes</t>
+  </si>
+  <si>
+    <t>These are the default and subnet routes created automatically</t>
+  </si>
+  <si>
+    <t>Custom routes</t>
+  </si>
+  <si>
+    <t>These are used to route traffic between subnets through a network virtual appliance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peering routes </t>
+  </si>
+  <si>
+    <t>These  are used for network peering.</t>
+  </si>
+  <si>
+    <t>NCC Routes</t>
+  </si>
+  <si>
+    <t>These represent a subnet IP range in a VPC spoke.</t>
+  </si>
+  <si>
+    <t>Policy based routes</t>
+  </si>
+  <si>
+    <t>These are the routes that apply to packets based on source IP, destination IP, protocol, or a combination thereof.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+When you create a VPC network, it includes a system-generated IPv4 default route, 0.0.0.0/0.</t>
+  </si>
+  <si>
+    <t>The IPv4 and IPv6 default routes that serve these purposes define a path out of the VPC network to external IP addresses on the Internet.</t>
+  </si>
+  <si>
+    <t>If you access Google APIs and services without using a private service connect endpoint, the default system-generated route can serve as the path to Google APIs and services.</t>
+  </si>
+  <si>
+    <t>To completely isolate your network from the Internet, or to replace the default route with the custom route, you can delete the default route.</t>
+  </si>
+  <si>
+    <t>VPC - level</t>
+  </si>
+  <si>
+    <t>Subnet - level</t>
+  </si>
+  <si>
+    <t>Subnet routes always have the most specific destination and cannot be overridden by higher priority routes.</t>
+  </si>
+  <si>
+    <t>If the subnet has secondary IP ranges, each secondary IP address range has a corresponding subnet route.</t>
+  </si>
+  <si>
+    <t>Benefits over Dynamic routing:
+1. generally provides quicker routing performance.
+2. More secure (no routes adviertisement)</t>
+  </si>
+  <si>
+    <t>Custom static routes forward packets to a static route next hop and are useful for all topologies. Assume instead of pointing to internet, using CSR an on-prem appliance can be mapped as next hop.</t>
+  </si>
+  <si>
+    <t>CSR Limitations: 
+1. Cannot point to VLAN attachment
+2. more maintenance</t>
+  </si>
+  <si>
+    <t>For example, a topology change on either network requires you to update static routes.
+Also, if a link fails, static routes can't reroute traffic automatically.
+For small, stable topologies, this is not always a significant concern.</t>
+  </si>
+  <si>
+    <t>A static tunnel forwards packets to a static route next hop and supports various destinations.
+The supportive static route next hop are instances, internal passthrough Network Load Balancers, and Classic VPN tunnel next hops.</t>
+  </si>
+  <si>
+    <t>Usecase: Forward packets to a Static Route next Hop
+2 instances in 2 diff VPCs - connected via VPN gateway with each IPSec tunnel</t>
+  </si>
+  <si>
+    <t>a network appliance using multi-nic for multiple vpc's, can directly interact with any instance in any vpc using internal IP, vpc peering also routes traffic using internal ip address, a vpn gateway with custom static routes also routes using private IPs, which approach suits which topology. when to use what</t>
+  </si>
+  <si>
+    <t>Multi-NIC Network Appliance</t>
+  </si>
+  <si>
+    <t>How it works</t>
+  </si>
+  <si>
+    <t>A VM-based appliance (e.g., firewall, IDS/IPS, proxy) is provisioned with multiple network interfaces, each connected to a different VPC. It acts as a hub/gateway.</t>
+  </si>
+  <si>
+    <t>Instance → Appliance (via NIC) → Forward to target VPC instance via another NIC.</t>
+  </si>
+  <si>
+    <t>Traffic flow</t>
+  </si>
+  <si>
+    <t>Hub-and-spoke architectures where security or inspection is required.
+Centralized network services (firewalls, NAT, proxies) for multiple VPCs.</t>
+  </si>
+  <si>
+    <t>Topology fit</t>
+  </si>
+  <si>
+    <t>When to use</t>
+  </si>
+  <si>
+    <t>You need deep packet inspection, traffic filtering, or service chaining.
+Regulatory/compliance requires all inter-VPC traffic to pass through security appliances.
+Custom routing logic is needed (e.g., non-standard NAT, packet mirroring).</t>
+  </si>
+  <si>
+    <t>More costly and complex (you manage appliance scaling, HA).
+Single point of failure if not deployed with redundancy.
+Latency overhead since all traffic detours through appliance.</t>
+  </si>
+  <si>
+    <t>Trade-offs</t>
+  </si>
+  <si>
+    <t>Direct peering between VPCs. Routes are exchanged, and traffic flows using private IPs across Google’s backbone.</t>
+  </si>
+  <si>
+    <t>Instance in VPC A ↔ Instance in VPC B, directly, no NAT, no appliance.</t>
+  </si>
+  <si>
+    <t>Simple spoke-to-spoke connectivity when there are few VPCs (≤10–20).
+One-off peering between environments (dev ↔ prod, analytics ↔ data lake).</t>
+  </si>
+  <si>
+    <t>Low-latency, high-bandwidth communication between workloads.
+You don’t need centralized inspection — just fast private connectivity.</t>
+  </si>
+  <si>
+    <t>No transitive routing (if VPC A peers with VPC B and B peers with C, A cannot automatically talk to C).
+Hard to scale beyond a certain number of VPCs (complex mesh).
+Limited route advertisement options.</t>
+  </si>
+  <si>
+    <t>VPN Gateway with Custom Static Routes</t>
+  </si>
+  <si>
+    <t>A VPN gateway connects VPCs (or on-prem) using encrypted tunnels, with custom routes to direct traffic via private IP ranges.</t>
+  </si>
+  <si>
+    <t>Instance in VPC A → VPN tunnel → VPC B instance via private IP.</t>
+  </si>
+  <si>
+    <t>Hybrid cloud (on-prem ↔ cloud, cloud ↔ cloud across providers).
+Cross-project or cross-organization VPCs where peering is not allowed.</t>
+  </si>
+  <si>
+    <t>You need encryption in transit (beyond Google’s backbone).
+VPCs are in different orgs/projects where VPC peering is restricted.
+Cross-cloud/multi-cloud interconnectivity (e.g., GCP ↔ AWS/Azure).</t>
+  </si>
+  <si>
+    <t>Higher latency and bandwidth limitations compared to peering.
+Tunnel setup/management overhead.
+Not as seamless as peering for intra-GCP VPCs.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Abadi"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Problem Statement: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Abadi"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+As the on-premises network expands through the server network, routes have to be manually configured to route traffic to the resource in the server network.
+A topology change on either network requires you to manually update static routes.
+Also, static routes cannot automatically reroute traffic when there is a link failure.</t>
+    </r>
+  </si>
+  <si>
+    <t>A solution is for a network to automatically and rapidly discover topology changes and then route traffic accordingly to minimize disruption.
+This is exactly the function of Cloud Router.</t>
+  </si>
+  <si>
+    <t>Cloud Router peers with an on-premises VPN gateway or router.</t>
+  </si>
+  <si>
+    <t>The router exchanges topology information through a border gateway protocol, or BGP.
+Cloud Router advertises subnets from its VPC network to the on-premises gateway via BGP.</t>
+  </si>
+  <si>
+    <t>Dynamic routes are managed by Cloud Routers in the VPC network.</t>
+  </si>
+  <si>
+    <t>Their destinations always represent IP address ranges outside of your VPC network, which are advertised from a BGP peer router.</t>
+  </si>
+  <si>
+    <t>Dynamic routes are used by: Dedicated Interconnect, Partner Interconnect, Cross-Cloud Interconnect, HA VPN tunnels, Classic VPN tunnels that use dynamic routing, and NCC Router appliances.</t>
+  </si>
+  <si>
+    <t>in general, on-premise setup what would be a vlan attachment which connects with CloudRouter via BGP and advertises the routes dynamically</t>
+  </si>
+  <si>
+    <t>General On-Prem Setup</t>
+  </si>
+  <si>
+    <t>In a datacenter or enterprise network, workloads usually live inside VLANs (Virtual LANs).
+VLANs are carved out on switches/routers to segment traffic (e.g., Prod VLAN, DB VLAN, DMZ VLAN).
+To connect these VLANs to an external network (like a cloud), you attach them to a router (physical or virtual).
+This router runs BGP (Border Gateway Protocol) with a peer in the cloud, dynamically exchanging routes.
+That way:
+On-premises learns cloud subnet routes dynamically.
+Cloud learns on-prem VLAN/subnet routes dynamically.</t>
+  </si>
+  <si>
+    <t>GCP Equivalent</t>
+  </si>
+  <si>
+    <t>In Google Cloud, the common attachment is:
+VLAN Attachment (Interconnect attachment)
+A dedicated VLAN (802.1Q tag) on the physical Interconnect connection.
+Each attachment corresponds to a logical “pipe” carrying a routing session.
+It terminates at Cloud Router in GCP.
+Cloud Router
+A managed BGP router in GCP.
+Establishes an eBGP session with your on-premises router.
+Dynamically advertises VPC subnet routes to on-prem.
+Learns on-prem routes and programs them into your VPC routing table.</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>Single and dual-stack subnets support IPv4 and IPv6.
+There's no subnet that only supports IPv6.</t>
+  </si>
+  <si>
+    <t>BYOIP</t>
+  </si>
+  <si>
+    <t>Problem Statement</t>
+  </si>
+  <si>
+    <t>Enterprises want to move their applications to the Cloud, but worry about having to swap their IP addresses for one's from their Cloud provider.</t>
+  </si>
+  <si>
+    <t>Google Cloud allow you to bring your own IP, or BYOIP addresses to Google's network infrastructure across all our 24 regions.</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>By bringing over your own IP addresses, you can accelerate your migration while minimizing downtime, as well as significantly reducing your network infrastructure costs.</t>
+  </si>
+  <si>
+    <t>With Google Cloud, your BYOIP prefixes can be broken into blocks as small as 16 addresses, or S/28.</t>
+  </si>
+  <si>
+    <t>It can be distributed to any region, and can also be used for global load balancers, creating more flexibility with the resources you already have.</t>
+  </si>
+  <si>
+    <t>You can also advertise the IP addresses you bring to Google Cloud globally to all peers.</t>
+  </si>
+  <si>
+    <t>BYOIP enables customers to assign IP addresses from a public IP range that they own, to Google Cloud resources.</t>
+  </si>
+  <si>
+    <t>How?</t>
+  </si>
+  <si>
+    <t>With BYOIP, customers can route traffic directly from the Internet to their VMs without having to go through their own physical networks.</t>
+  </si>
+  <si>
+    <t>After the IP addresses are imported, Google Cloud manages them in the same way as Google-provided IP addresses with these exceptions.</t>
+  </si>
+  <si>
+    <t>The IP addresses are available only to the customer who brought them, and idle or in-use IP addresses incur no charges.</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>You can leverage BYOIP addresses for Classic VPN gateway tunnels as Peer IP addresses, 
+external Google Kubernetes Engine forwarding rules, and configuring static IP addresses for VMs within state-full managed instance groups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYOIP addresses cannot be used as PRIP addresses for HA VPN gateway tunnels, or as external IP addresses for VPN gateway tunnels in general.
+Additionally, shared VPC service projects, Google Kubernetes Engine nodes and pods, and managed instance groups with automatic IP allocation, do not support the use of BYOIP addresses.
+</t>
+  </si>
+  <si>
+    <t>Limitations</t>
+  </si>
+  <si>
+    <t>BYOIP prefixes cannot overlap with subnet or alias ranges in the VPC used by the customer.</t>
+  </si>
+  <si>
+    <t>For BYOIP, the IP address must be IPv4.</t>
+  </si>
+  <si>
+    <t>If Google and another network advertise the same route with matching or mismatched prefix lengths, BGP can not work properly, you might experience unexpected routing and packet loss.</t>
+  </si>
+  <si>
+    <t>For example, suppose you're advertising a 203.0.112.0/20 address block, and you're using BGP to route packets, you could bring a 203.0.112.0/23 address block that you own to Google, using BYOIP, and set it up to route externally.
+Because the /23 block is contained within the /20 block, BGP route announcements may overlap.
+If you're maintaining the routing registry correctly, BGP routing practices cause the more specific route to take precedence.
+Thus, the /23 block will take precedence over the /20 block.
+However, if the 23 route ever stopped being advertised, the /20 block could be used.</t>
+  </si>
+  <si>
+    <t>Cloud DNS</t>
+  </si>
+  <si>
+    <t>DNS provides lookup for sites on the internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A DNS service is provided by your ISP or Internet service provider.</t>
+  </si>
+  <si>
+    <t>The DNS service recursive resolver issues a request to look up the IP address of cymbal.com from one of its name servers. The name server responds with the ISP, and the recursive resolver sends the IP to the client.</t>
+  </si>
+  <si>
+    <t>When the name server cannot satisfy the lookup, the DNS service might contact another DNS service for this information.</t>
+  </si>
+  <si>
+    <t>Some organizations don't rely on their ISP to provide DNS service, so they create and maintain their own DNS servers.</t>
+  </si>
+  <si>
+    <t>Organizations sometimes do this to limit or customize the information that is returned or because they can achieve better performance if they use their own DNS servers.</t>
+  </si>
+  <si>
+    <t>Alternatively, they can purchase DNS services from another organization.</t>
+  </si>
+  <si>
+    <t>Google Cloud is one of them. Cloud DNS lets you create and update millions of DNS records without the burden of managing your own DNS servers and software.</t>
+  </si>
+  <si>
+    <t>Google provides a monthly uptime percentage of serving DNS queries from at least one of the Google managed authoritative name servers to customers of 100% SLO.</t>
+  </si>
+  <si>
+    <t>Private DNS Zones</t>
+  </si>
+  <si>
+    <t>Public DNS Zones</t>
+  </si>
+  <si>
+    <t>Private zones are used to provide a namespace that is visible only inside the VPC or hybrid network environment.</t>
+  </si>
+  <si>
+    <t>For example, an organization would use a private zone for a domain dev.gcp.example.com, which is reachable only from within the company Internet.</t>
+  </si>
+  <si>
+    <t>Public zones are used to provide authoritative DNS resolution to clients on the public Internet.</t>
+  </si>
+  <si>
+    <t>For example, a business would use a public zone for its external website cymbal.com, which is accessible directly from the Internet.</t>
+  </si>
+  <si>
+    <t>Don't confuse the concept of a public zone with Google public DNS 8.8.8.8. Google public DNS is just a public recursive resolver.</t>
+  </si>
+  <si>
+    <t>Policies</t>
+  </si>
+  <si>
+    <t>Cloud DNS policies provide a flexible way to define how your organization uses DNS. After you create the DNS zones and artifacts needed for lookups, create Cloud DNS policies.</t>
+  </si>
+  <si>
+    <t>Server policies</t>
+  </si>
+  <si>
+    <t>Response policies</t>
+  </si>
+  <si>
+    <t>Routing policies</t>
+  </si>
+  <si>
+    <t>To set up hybrid deployment for DNS resolution.</t>
+  </si>
+  <si>
+    <t>Each virtual private cloud or VPC network can have only one Server policy</t>
+  </si>
+  <si>
+    <t>You can set up an inbound server policy depending on the direction of the DNS resolutions.</t>
+  </si>
+  <si>
+    <t>If your workloads plan to use an on-premises DNS resolver, you can set up DNS forwarding zones by using an outbound server policy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+If you want your on-premises workloads to resolve Cloud DNS private zones, you can set up an inbound server policy.</t>
+  </si>
+  <si>
+    <t>The policy can specify inbound DNS forwarding, outbound DNS forwarding or both.</t>
+  </si>
+  <si>
+    <t>What is a Cloud DNS Server Policy?</t>
+  </si>
+  <si>
+    <t>In GCP, Cloud DNS server policies let you control how DNS queries are handled between your VPC and the Cloud DNS infrastructure.
+You can configure policies to:
+Forward queries from your VPC to an external DNS server.
+Receive queries from an on-premises network into Cloud DNS.
+Apply custom DNS resolution behavior for hybrid and multi-VPC setups.</t>
+  </si>
+  <si>
+    <t>Types of Server Policies</t>
+  </si>
+  <si>
+    <t>When creating a DNS server policy, you can configure two main modes:
+1. Inbound Server Policy
+Permits inbound DNS forwarding from on-premises or another network into Cloud DNS.
+Use case: Your on-premises resolver (like BIND, Infoblox, Windows DNS) can forward queries to Cloud DNS resolvers.
+GCP then answers queries for:
+Private DNS zones in your VPC(s).
+Public DNS lookups (via Cloud DNS resolvers).
+✅ Example:
+You have workloads on-prem in IP range 10.1.0.0/16.
+They need to resolve private service names hosted in a GCP VPC (db.internal.example.com).
+You create an inbound server policy with a DNS forwarding zone.
+On-prem DNS → forwards queries → Cloud DNS inbound endpoint → Cloud DNS returns private IP.
+Think of it as on-prem → GCP DNS resolver access.</t>
+  </si>
+  <si>
+    <t>Outbound Server Policy
+Permits outbound DNS forwarding from a GCP VPC to external resolvers (on-prem DNS or third-party).
+Use case: GCP VMs forward queries to on-prem DNS to resolve internal hostnames (hr.local.corp).</t>
+  </si>
+  <si>
+    <t>A response policy is a Cloud DNS private zone concept that contains rules instead of records.</t>
+  </si>
+  <si>
+    <t>use response policies to create a DNS firewall by returning modified DNS results to clients.</t>
+  </si>
+  <si>
+    <t>For example, you can use response policies to block access to specified HTTP servers.
+The response policy feature lets you introduce customized rules in DNS servers within your network that the DNS resolver consults during lookups.</t>
+  </si>
+  <si>
+    <t>DNS routing policies let you steer your traffic based on specific criteria.
+Google Cloud supports three types of DNS routing policies: weighted round robin, geolocation, geofencing and failover.</t>
+  </si>
+  <si>
+    <t>A weighted round robin routing policy lets you specify different weights per DNS target, and Cloud DNS ensures that your traffic is distributed according to the weights.</t>
+  </si>
+  <si>
+    <t>Google Cloud supports three types of DNS routing policies: weighted round robin, geolocation, geofencing and failover.</t>
+  </si>
+  <si>
+    <t>A geolocation routing policy let's you map traffic originating from source geographies, Google Cloud regions to specific DNS targets.
+Use this policy to distribute incoming requests to different service instances based on the traffic's origin.</t>
+  </si>
+  <si>
+    <t>A failover routing policy, lets you set up active backup configurations.
+This option is only available for private zones.</t>
+  </si>
+  <si>
+    <t>Direct traffic to the nearest server based on users geographical location, what are all the possible valid mechanism available as on today, define the complexity of implementing &amp; operating the setup as well as highlight the architectural trade offs in deciding when to chose which approach</t>
+  </si>
+  <si>
+    <t>Mechanism</t>
+  </si>
+  <si>
+    <t>What it does</t>
+  </si>
+  <si>
+    <t>Implementation complexity</t>
+  </si>
+  <si>
+    <t>Ongoing ops</t>
+  </si>
+  <si>
+    <t>When it’s a great fit</t>
+  </si>
+  <si>
+    <t>Key trade-offs / gotchas</t>
+  </si>
+  <si>
+    <t>CDN anycast edge (static &amp; cacheable dynamic)</t>
+  </si>
+  <si>
+    <t>Users hit a nearby CDN POP via anycast; CDN serves from cache or forwards to your nearest/healthy origin pool.</t>
+  </si>
+  <si>
+    <t>Low (CNAME to CDN, define origins)</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Static assets; API reads that can be cached; global web apps</t>
+  </si>
+  <si>
+    <t>Cache invalidation, cold-cache latency, limited control over exact origin selection unless you enable origin steering rules.</t>
+  </si>
+  <si>
+    <t>HTTP 302 geo-redirect (edge or app)</t>
+  </si>
+  <si>
+    <t>First request lands anywhere; you inspect GeoIP and 302 to the region-specific hostname.</t>
+  </si>
+  <si>
+    <t>Low–Medium</t>
+  </si>
+  <si>
+    <t>Simple sites; marketing pages; SEO-aware redirects</t>
+  </si>
+  <si>
+    <t>Adds an extra round-trip; needs canonical URLs; keep TTLs/cookies tidy; not ideal for APIs/mobile SDKs.</t>
+  </si>
+  <si>
+    <t>Authoritative DNS: Geolocation routing</t>
+  </si>
+  <si>
+    <t>DNS answers vary by user resolver’s geography (country/region).</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Content with geography = jurisdiction (e.g., serve EU from EU only)</t>
+  </si>
+  <si>
+    <t>GeoIP databases can misclassify; resolvers may be far from users; coarse granularity; DNS TTL changes propagate slowly.</t>
+  </si>
+  <si>
+    <t>Authoritative DNS: Latency-based routing (LBR)</t>
+  </si>
+  <si>
+    <t>DNS measures RTT from many vantage points and returns the lowest-latency endpoint.</t>
+  </si>
+  <si>
+    <t>APIs and sites where raw latency matters more than geography</t>
+  </si>
+  <si>
+    <t>Still DNS-level (no per-request decisions); resolver location bias; health checks must be solid to avoid blackholing.</t>
+  </si>
+  <si>
+    <t>Global anycast IP with centralized LB (L7/L4 anycast)</t>
+  </si>
+  <si>
+    <t>One anycast IP; BGP routes users to the nearest edge where a global LB chooses the closest/healthy backend.</t>
+  </si>
+  <si>
+    <t>Large global apps; TLS termination at edge; fast failover</t>
+  </si>
+  <si>
+    <t>Needs a provider that truly load-balances globally; “nearest” is network-nearest (BGP), not always geographic; capacity planning across regions.</t>
+  </si>
+  <si>
+    <t>Edge load balancer with geo/latency steering (CDN “origin steering” / “global traffic management”)</t>
+  </si>
+  <si>
+    <t>Edge POP decides per-request which origin/region to use, using health + latency + geo rules.</t>
+  </si>
+  <si>
+    <t>Mixed dynamic content; multi-region origins; A/B or percent traffic splits</t>
+  </si>
+  <si>
+    <t>Vendor features vary; debugging can be non-trivial; be explicit about session affinity and failover.</t>
+  </si>
+  <si>
+    <t>Anycast BGP to your own edges</t>
+  </si>
+  <si>
+    <t>You run multiple edge sites that announce the same anycast prefix; users land on the closest edge you control.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Very high scale; you own data centers/POPs; custom protocols</t>
+  </si>
+  <si>
+    <t>Requires ASN/IP space, BGP expertise, DDoS plan; traffic may shift with Internet routing dynamics; complex observability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mostly static or cacheable content? Start with CDN anycast (1). Add origin steering (6) if you run multiple origins.
+Strict data residency or content licensing by geography? Geo-DNS (3) or edge geo rules (6/11).
+Latency-sensitive APIs with global users? Latency-based DNS (4) or global anycast LB (5); add health-aware steering (6).
+Mobile/SDK, long-lived sessions, or custom protocols? Client-side selection (8) or protocol anycast (9).
+Owning the edge / maximum control? Run your own anycast (7) — only if you have the team for BGP + DDoS + SRE.
+Internal microservices across regions? Regional gateways + discovery (10), optionally with header hints (11).</t>
+  </si>
+  <si>
+    <t>Picking the right one (fast decision guide)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Accuracy of “nearest”
+DNS (3/4) ties to resolver location, not user; good but imperfect.
+Anycast (5/7/9) ties to BGP path; usually excellent, but Internet routing can shift.
+Client-side (8) is most accurate for that user right now.
+Failover speed
+DNS depends on TTLs and resolver caching → slower.
+Anycast/LB can fail over at the edge in seconds.
+Client-side can re-probe immediately (you own logic).
+State &amp; data gravity
+Nearest compute ≠ nearest data. If the DB is elsewhere, you just moved the bottleneck. Consider:
+Read replicas per region; write sharding; multi-primary with conflict resolution; or queues for async writes.
+Session affinity
+If you need sticky sessions, choose an approach that keeps users in-region (LB cookies, edge affinity) and design cross-region session sharing or statelessness.
+Observability &amp; debuggability
+Geo/LBR at DNS can be opaque due to resolver indirection.
+Anycast requires BGP/route telemetry.
+Client-side needs RUM pipelines and privacy controls.
+Compliance &amp; sovereignty
+Prefer geo routing with hard fences (3/6/11) when data must not leave a region. Add enforcement at auth layer.
+Cost &amp; complexity
+CDN/managed edge steering often beats DIY anycast on TCO.
+Running your own anycast or global GTM is powerful but SRE-heavy.</t>
+  </si>
+  <si>
+    <t>Architectural trade-offs you should weigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+“Good enough” global web/app
+CDN anycast (1) + origin pools per region with health/latency steering (6).
+Regional DB read replicas; write to home region via API.
+Low-latency global API
+Latency-based DNS (4) pointing to regional L7 LBs (5).
+Sticky sessions disabled; JWT for stateless auth.
+Cross-region failover via health-based answer suppression.
+Sovereign workloads
+Geolocation DNS (3) or edge geo rules (6/11) with hard regional fences.
+Region-local data planes; cross-region async replication.
+Realtime gaming/VoIP
+Anycast UDP ingress (9) with regional game servers.
+RUM-based client pinning (8) + fast rejoin on route changes.
+State handoff or session rehydration strategy.</t>
+  </si>
+  <si>
+    <t>Reference patterns (battle-tested)</t>
+  </si>
+  <si>
+    <t>what is an anicast, is it a device or method, is unicast related to it. how to identify this technology, where exactly it shines. which subject covers this topic</t>
+  </si>
+  <si>
+    <t>What is Anycast?</t>
+  </si>
+  <si>
+    <t>Anycast is a routing technique where multiple servers share the same IP address, and BGP (Border Gateway Protocol) ensures traffic is delivered to the “nearest” one (in terms of network topology, not strictly geography).
+It’s not a device — it’s a method implemented using IP addressing + BGP routing.
+Think of it as:
+One IP address → many physical locations.
+Routers pick the “best” path based on shortest AS-path/metrics.</t>
+  </si>
+  <si>
+    <t>How does it compare to Unicast / Broadcast / Multicast?</t>
+  </si>
+  <si>
+    <t>Unicast: One IP ↔ One device (most common, e.g., your laptop’s IP).
+Broadcast: One IP ↔ Everyone in the subnet (ARP requests, etc.).
+Multicast: One IP ↔ A group of subscribed receivers (video streaming, stock feeds).
+Anycast: One IP ↔ Multiple servers, but only one (nearest) server responds to each user.
+👉 So yes, unicast is “related” — it’s the baseline model. Anycast extends it by letting many hosts claim the same unicast address via routing announcements.</t>
+  </si>
+  <si>
+    <t>How to Identify Anycast in Use</t>
+  </si>
+  <si>
+    <t>You can spot/verify anycast IPs by:
+Global DNS services – e.g. 8.8.8.8 (Google DNS), 1.1.1.1 (Cloudflare DNS) → both are anycasted.
+Traceroute / Ping from multiple locations → Same IP gives different hops/latency depending on where you are.
+Example: Ping 1.1.1.1 from India vs US vs Europe — RTT is very low in each region because you’re hitting a local POP even though the IP is the same.
+Provider docs – CDNs (Cloudflare, Akamai, Fastly), DNS resolvers, DDoS mitigation providers all explicitly advertise anycast networks.</t>
+  </si>
+  <si>
+    <t>Where Anycast Shines</t>
+  </si>
+  <si>
+    <t>DNS – Authoritative and recursive DNS use anycast so queries hit the nearest resolver (e.g., Google Public DNS).
+CDNs – Same website IP → nearest POP (edge node) responds.
+DDoS mitigation – Attack traffic gets “absorbed” at the closest POP, distributing load globally.
+Latency-sensitive apps – Gaming, VoIP, real-time APIs.
+Global LB – Simplifies user entry point (one IP) instead of regional IPs.</t>
+  </si>
+  <si>
+    <t>Pros:
+Single global IP for a distributed service.
+Users connect to closest/fastest site.
+Great resiliency + scaling (DDoS handling).
+Cons:
+Session stickiness is tricky (a route flap can move a client mid-session).
+Debugging is harder (different users hit different servers for same IP).
+Requires owning IP space + BGP capability (unless using a CDN/cloud provider that does it for you).</t>
+  </si>
+  <si>
+    <t>Which Subject Covers This Topic?</t>
+  </si>
+  <si>
+    <t>Networking (Computer Networks / Internet Routing) – especially BGP and IP addressing models.
+Covered in:
+Computer Science / Network Engineering courses.
+Certifications like CCNA/CCNP, GCP/AWS/Azure Architect networking modules.
+Topics: IP routing, peering, internet-scale load balancing, CDN architecture.</t>
+  </si>
+  <si>
+    <t>Regional API gateways + smart service discovery</t>
+  </si>
+  <si>
+    <t>Gateways in each region; discovery (DNS or config server) returns region-local endpoints.</t>
+  </si>
+  <si>
+    <t>Microservices; internal traffic</t>
+  </si>
+  <si>
+    <t>Registry health correctness is critical; cross-region fallback needs care; avoid split-brain.</t>
+  </si>
+  <si>
+    <t>HTTP header-based geo affinity at LB</t>
+  </si>
+  <si>
+    <t>LB injects geo/latency signals (e.g., header like X-Geo-Country) to your app which chooses a backend/redirect.</t>
+  </si>
+  <si>
+    <t>You want business-logic control (jurisdiction, entitlements)</t>
+  </si>
+  <si>
+    <t>You implement the policy; must keep logic fast and deterministic.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +1171,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Abadi"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Abadi"/>
       <family val="2"/>
     </font>
@@ -292,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -314,6 +1242,107 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,11 +1623,562 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B9B16D-412F-4EED-BEF4-8D175729118B}">
+  <dimension ref="B2:F71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="12"/>
+    <col min="2" max="2" width="20.296875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="64.69921875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="77.09765625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="60.59765625" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="2:6" ht="31.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="15" spans="2:6" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="C15" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="C16" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="20" spans="2:6" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="22" spans="2:6" ht="409.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="28" spans="2:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="C30" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="2:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="C32" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="14"/>
+      <c r="D33" s="16"/>
+    </row>
+    <row r="34" spans="2:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="C34" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="14"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="2:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C36" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="14"/>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="2:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C38" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="14"/>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="14"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="16"/>
+    </row>
+    <row r="47" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+    </row>
+    <row r="48" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="38"/>
+      <c r="C48" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" s="40" customFormat="1" ht="409.55" x14ac:dyDescent="0.3">
+      <c r="C49" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="27"/>
+    </row>
+    <row r="58" spans="2:5" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B58" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B59" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B63" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B67" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B68" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +2188,7 @@
     <col min="3" max="3" width="51.8984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="62.19921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="37.296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.8984375" style="4" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
@@ -781,12 +2361,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>47</v>
@@ -817,6 +2400,1443 @@
       </c>
       <c r="E27" s="4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="46" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C47" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="216" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C66" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C68" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C70" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C72" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="C73" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C44:D44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8623CE-7B83-4C22-ACC5-F22E6BC1F54D}">
+  <dimension ref="A1:G140"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="17"/>
+    <col min="2" max="2" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.19921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.8984375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="55.5" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="19" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" s="21" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="18"/>
+      <c r="C16" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" ht="84.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="2:6" ht="71.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="2:6" ht="93.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="18"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:6" ht="88.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="18"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:6" s="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+    </row>
+    <row r="33" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="18"/>
+      <c r="C34" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="18"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="18"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="18"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="18"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="18"/>
+      <c r="C39" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="18"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="18"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="18"/>
+      <c r="C43" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="32"/>
+    </row>
+    <row r="44" spans="2:6" ht="83.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="18"/>
+      <c r="C44" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="18"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="18"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:6" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="18"/>
+      <c r="C48" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="18"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="18"/>
+      <c r="C59" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" s="36"/>
+    </row>
+    <row r="60" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="18"/>
+      <c r="C60" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="18"/>
+      <c r="C61" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="18"/>
+      <c r="C63" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="16"/>
+    </row>
+    <row r="64" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="18"/>
+      <c r="C66" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B67" s="18"/>
+      <c r="C67" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B68" s="18"/>
+      <c r="C68" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="18"/>
+      <c r="C69" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B70" s="18"/>
+      <c r="C70" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="18"/>
+      <c r="C71" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="18"/>
+      <c r="C72" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="18"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+    </row>
+    <row r="74" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="18"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="18"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="18"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="18"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="16"/>
+    </row>
+    <row r="78" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="18"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="16"/>
+    </row>
+    <row r="79" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="18"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="16"/>
+    </row>
+    <row r="80" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="18"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="16"/>
+    </row>
+    <row r="81" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="18"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="16"/>
+    </row>
+    <row r="82" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="18"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="16"/>
+    </row>
+    <row r="83" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="18"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="16"/>
+    </row>
+    <row r="84" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="18"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="16"/>
+    </row>
+    <row r="85" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="18"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="16"/>
+    </row>
+    <row r="86" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="18"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="16"/>
+    </row>
+    <row r="87" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="18"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="16"/>
+    </row>
+    <row r="88" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="18"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="16"/>
+    </row>
+    <row r="89" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="18"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="16"/>
+    </row>
+    <row r="90" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="18"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="16"/>
+    </row>
+    <row r="91" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="18"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="18"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="16"/>
+    </row>
+    <row r="93" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="18"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="16"/>
+    </row>
+    <row r="94" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="18"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="16"/>
+    </row>
+    <row r="95" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="18"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="16"/>
+    </row>
+    <row r="96" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="18"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="16"/>
+    </row>
+    <row r="97" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="18"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="16"/>
+    </row>
+    <row r="98" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="18"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="18"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="16"/>
+    </row>
+    <row r="100" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="18"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="16"/>
+    </row>
+    <row r="101" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="18"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="16"/>
+    </row>
+    <row r="102" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="18"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="16"/>
+    </row>
+    <row r="103" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="18"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="16"/>
+    </row>
+    <row r="104" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="18"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="16"/>
+    </row>
+    <row r="105" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="18"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="16"/>
+    </row>
+    <row r="106" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="18"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="16"/>
+    </row>
+    <row r="107" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="18"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="16"/>
+    </row>
+    <row r="108" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="18"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="16"/>
+    </row>
+    <row r="109" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="18"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="16"/>
+    </row>
+    <row r="110" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="18"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="16"/>
+    </row>
+    <row r="111" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="18"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="16"/>
+    </row>
+    <row r="112" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="18"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="16"/>
+    </row>
+    <row r="113" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="18"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="16"/>
+    </row>
+    <row r="114" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="18"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="16"/>
+    </row>
+    <row r="115" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="18"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="16"/>
+    </row>
+    <row r="116" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="18"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="16"/>
+    </row>
+    <row r="117" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="18"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="16"/>
+    </row>
+    <row r="118" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="18"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="16"/>
+    </row>
+    <row r="119" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="18"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="16"/>
+    </row>
+    <row r="120" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="18"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="16"/>
+    </row>
+    <row r="121" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="18"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="16"/>
+    </row>
+    <row r="122" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="18"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="16"/>
+    </row>
+    <row r="123" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="18"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="16"/>
+    </row>
+    <row r="124" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="18"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="16"/>
+    </row>
+    <row r="125" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="18"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="16"/>
+    </row>
+    <row r="126" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="18"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="16"/>
+    </row>
+    <row r="127" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="18"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="16"/>
+    </row>
+    <row r="128" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="18"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="16"/>
+    </row>
+    <row r="129" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="18"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="16"/>
+    </row>
+    <row r="130" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="18"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="16"/>
+    </row>
+    <row r="131" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="18"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="16"/>
+    </row>
+    <row r="132" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="18"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="16"/>
+    </row>
+    <row r="133" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="18"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="16"/>
+    </row>
+    <row r="134" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="18"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="16"/>
+    </row>
+    <row r="135" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="18"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="16"/>
+    </row>
+    <row r="136" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="18"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="16"/>
+    </row>
+    <row r="137" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="18"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="16"/>
+    </row>
+    <row r="138" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="18"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="16"/>
+    </row>
+    <row r="139" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="18"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="16"/>
+    </row>
+    <row r="140" spans="2:6" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="18"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C140D71A-078C-495D-B9E0-7A6C3F021F82}">
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
